--- a/medicine/Sexualité et sexologie/Drive-in_du_sexe/Drive-in_du_sexe.xlsx
+++ b/medicine/Sexualité et sexologie/Drive-in_du_sexe/Drive-in_du_sexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un drive-in du sexe (ou sexbox) est une zone de prostitution aménagée pour des clients qui viendraient en automobile.
-La ville de Zurich, en Suisse, « a présenté jeudi 15 août (2013) son projet de "sexbox", une sorte de drive-in du sexe, ultime tentative des autorités pour déplacer la prostitution loin du centre-ville. Inspiré d'expériences réalisées à l'étranger, approuvé par un vote populaire en mars 2012, le lieu, une première en Suisse, ouvrira ses portes le 26 août[1] », ce dispositif est inspiré « d’expériences faites à l’étranger[2]  », « les travaux ont coûté 2,1 millions de francs suisses (1,6 million d'euros), soit un chiffre moins élevé que le budget voté, les coûts de fonctionnement s'élèveront à environ 700.000 francs suisses par année [3].  »
+La ville de Zurich, en Suisse, « a présenté jeudi 15 août (2013) son projet de "sexbox", une sorte de drive-in du sexe, ultime tentative des autorités pour déplacer la prostitution loin du centre-ville. Inspiré d'expériences réalisées à l'étranger, approuvé par un vote populaire en mars 2012, le lieu, une première en Suisse, ouvrira ses portes le 26 août », ce dispositif est inspiré « d’expériences faites à l’étranger  », « les travaux ont coûté 2,1 millions de francs suisses (1,6 million d'euros), soit un chiffre moins élevé que le budget voté, les coûts de fonctionnement s'élèveront à environ 700.000 francs suisses par année .  »
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Galerie d'images du site de Zurich, sur le site de la Tribune de Genève, consulté le 18 août 2013.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Note et référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ PRAGMATISME – La Suisse va inaugurer un « drive-in » du sexe, article sur le blog Big Browser, hébergé sur le site du quotidien Le Monde, daté du 17 août 2013.
